--- a/target/ExcelReport/ExtentExcel.xlsx
+++ b/target/ExcelReport/ExtentExcel.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="103">
   <si>
     <t>Duration</t>
   </si>
@@ -189,16 +189,16 @@
     <t>device</t>
   </si>
   <si>
-    <t>Sept 26, 2024 7:02:00 pm</t>
-  </si>
-  <si>
-    <t>Sept 26, 2024 6:57:00 pm</t>
-  </si>
-  <si>
-    <t>Sept 26, 2024 7:01:55 pm</t>
-  </si>
-  <si>
-    <t>4 m 55.223 s</t>
+    <t>Sept 27, 2024 2:45:07 pm</t>
+  </si>
+  <si>
+    <t>Sept 27, 2024 2:40:20 pm</t>
+  </si>
+  <si>
+    <t>Sept 27, 2024 2:45:02 pm</t>
+  </si>
+  <si>
+    <t>4 m 41.483 s</t>
   </si>
   <si>
     <t>100%</t>
@@ -207,7 +207,7 @@
     <t>Successful login with valid credentials</t>
   </si>
   <si>
-    <t>23.279 s</t>
+    <t>21.192 s</t>
   </si>
   <si>
     <t>Pharmacist Login</t>
@@ -216,19 +216,19 @@
     <t>Login with invalid password and verify error message</t>
   </si>
   <si>
-    <t>11.516 s</t>
+    <t>8.534 s</t>
   </si>
   <si>
     <t>Login with invalid email and verify error message</t>
   </si>
   <si>
-    <t>11.721 s</t>
+    <t>8.465 s</t>
   </si>
   <si>
     <t>Search for a patient by ID and set a review date</t>
   </si>
   <si>
-    <t>24.896 s</t>
+    <t>26.189 s</t>
   </si>
   <si>
     <t>Patient Search Functionality</t>
@@ -237,7 +237,7 @@
     <t>Verify that the Advanced Search popup opens successfully.</t>
   </si>
   <si>
-    <t>14.157 s</t>
+    <t>12.729 s</t>
   </si>
   <si>
     <t>Pharmacist Portal Advance Search Feature</t>
@@ -246,79 +246,79 @@
     <t>Verify if the results are displayed when user enters First Name</t>
   </si>
   <si>
-    <t>18.999 s</t>
+    <t>14.438 s</t>
   </si>
   <si>
     <t>Verify if the results are displayed when user enters Last Name</t>
   </si>
   <si>
-    <t>19.623 s</t>
+    <t>12.783 s</t>
   </si>
   <si>
     <t>Verify if the results are displayed when user enters FirstName and City</t>
   </si>
   <si>
-    <t>20.585 s</t>
+    <t>13.362 s</t>
   </si>
   <si>
     <t>Error Validation - Verify if the results are displayed when user enters City</t>
   </si>
   <si>
-    <t>17.923 s</t>
+    <t>12.657 s</t>
   </si>
   <si>
     <t>Verify if the results are displayed when user enters FirstName and Selects State</t>
   </si>
   <si>
-    <t>15.643 s</t>
+    <t>12.716 s</t>
   </si>
   <si>
     <t>Error Validation - Verify if the results are displayed when user Selects State</t>
   </si>
   <si>
-    <t>13.591 s</t>
+    <t>12.072 s</t>
   </si>
   <si>
     <t>Verify if the results are displayed when user enters Zip Code</t>
   </si>
   <si>
-    <t>14.959 s</t>
+    <t>16.428 s</t>
   </si>
   <si>
     <t>Negative test scenario - Verify if the results are displayed when user enters Zip Code in invalid format</t>
   </si>
   <si>
-    <t>13.987 s</t>
+    <t>12.363 s</t>
   </si>
   <si>
     <t>Verify if the results are displayed when user enters Phone Number</t>
   </si>
   <si>
-    <t>15.530 s</t>
+    <t>13.095 s</t>
   </si>
   <si>
     <t>Negative test scenario - Verify if the results are displayed when user enters Phone Number in invalid format</t>
   </si>
   <si>
-    <t>14.524 s</t>
+    <t>15.470 s</t>
   </si>
   <si>
     <t>Verify if the results are displayed when user enters Birth Date</t>
   </si>
   <si>
-    <t>13.980 s</t>
+    <t>31.664 s</t>
   </si>
   <si>
     <t>Negative test scenario - Verify if the results are displayed when user enters Birth Date in invalid format</t>
   </si>
   <si>
-    <t>13.631 s</t>
+    <t>14.788 s</t>
   </si>
   <si>
     <t>Enter HPID and verify results</t>
   </si>
   <si>
-    <t>15.963 s</t>
+    <t>21.809 s</t>
   </si>
   <si>
     <t>@testNG</t>
@@ -333,10 +333,19 @@
     <t>@login</t>
   </si>
   <si>
-    <t>46.533 s</t>
-  </si>
-  <si>
-    <t>3 m 43.095 s</t>
+    <t>@loginFeature</t>
+  </si>
+  <si>
+    <t>@patientSearch</t>
+  </si>
+  <si>
+    <t>@advanceSearch</t>
+  </si>
+  <si>
+    <t>38.206 s</t>
+  </si>
+  <si>
+    <t>3 m 36.379 s</t>
   </si>
 </sst>
 </file>
@@ -2654,9 +2663,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$25</c:f>
+              <c:f>Tags!$B$22:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>@testNG</c:v>
                 </c:pt>
@@ -2668,15 +2677,24 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>@login</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>@loginFeature</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>@patientSearch</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>@advanceSearch</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$D$22:$D$25</c:f>
+              <c:f>Tags!$D$22:$D$28</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2688,6 +2706,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2745,9 +2772,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$25</c:f>
+              <c:f>Tags!$B$22:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>@testNG</c:v>
                 </c:pt>
@@ -2759,13 +2786,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>@login</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>@loginFeature</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>@patientSearch</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>@advanceSearch</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$F$22:$F$25</c:f>
+              <c:f>Tags!$F$22:$F$28</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2822,9 +2858,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tags!$B$22:$B$25</c:f>
+              <c:f>Tags!$B$22:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>@testNG</c:v>
                 </c:pt>
@@ -2836,13 +2872,22 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>@login</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>@loginFeature</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>@patientSearch</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>@advanceSearch</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tags!$E$22:$E$25</c:f>
+              <c:f>Tags!$E$22:$E$28</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -6157,7 +6202,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="CEE1" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="D2DD" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6694,7 +6739,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:I33"/>
+  <dimension ref="B20:I54"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -6804,81 +6849,75 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="35" t="s">
+    <row r="26">
+      <c r="B26" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D26" s="58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="57" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D28" s="58" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C32" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="36" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I32" s="35" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="55" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C33" s="62" t="s">
         <v>57</v>
@@ -6894,15 +6933,338 @@
         <v>29</v>
       </c>
     </row>
+    <row r="34">
+      <c r="B34" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="I52" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="B41:B54"/>
+    <mergeCell ref="C41:G54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6999,7 +7361,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E22" s="57" t="n">
         <v>3.0</v>
@@ -7059,7 +7421,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E24" s="57" t="n">
         <v>14.0</v>
